--- a/test_files/lse_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_no-graph.xlsx
+++ b/test_files/lse_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-0_no-graph.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\lse_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="165" windowWidth="9015" windowHeight="11400" tabRatio="644" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="12915" yWindow="165" windowWidth="9015" windowHeight="11400" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -198,7 +198,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,20 +602,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -635,7 +635,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -644,7 +644,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -664,94 +664,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -763,21 +763,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -785,7 +785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -817,71 +817,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -894,14 +894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -984,7 +984,7 @@
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1107,31 +1107,31 @@
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1144,16 +1144,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1359,51 +1359,51 @@
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -1415,34 +1415,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1536,33 +1536,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1673,19 +1673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1757,15 +1757,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1888,22 +1888,22 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
